--- a/documentation/users_template/users_template.xlsx
+++ b/documentation/users_template/users_template.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt_exam\documentation\users_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC975D8-8E18-42F9-8732-0115436D0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E9226-8FAC-4FB0-99E7-AD5036B5E19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users!$F$1:$F$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>Names</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
@@ -43,109 +43,34 @@
     <t>Job Application</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Admin II</t>
-  </si>
-  <si>
     <t>userPassport</t>
   </si>
   <si>
-    <t>kentdock1234</t>
-  </si>
-  <si>
-    <t>kentdock1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Kent Dock</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Joan Greg</t>
-  </si>
-  <si>
-    <t>joan_greg@gmail.com</t>
-  </si>
-  <si>
-    <t>joan_greg1234</t>
-  </si>
-  <si>
-    <t>web designer</t>
-  </si>
-  <si>
-    <t>Thomas David</t>
-  </si>
-  <si>
-    <t>thomas_david@gmail.com</t>
-  </si>
-  <si>
-    <t>thomasDavid1234</t>
-  </si>
-  <si>
-    <t>Frank Fletcher</t>
-  </si>
-  <si>
-    <t>fletcherFrank123@hotmail.com</t>
-  </si>
-  <si>
-    <t>fletcherFrank123</t>
-  </si>
-  <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>Kenneth Enobakhare</t>
-  </si>
-  <si>
-    <t>kenenobas@gmail.com</t>
-  </si>
-  <si>
-    <t>ken24ever</t>
-  </si>
-  <si>
-    <t>osasumwen24</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Daniel Oko</t>
-  </si>
-  <si>
-    <t>dan_oko@gmail.com</t>
-  </si>
-  <si>
-    <t>dan_oko1234</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Dentist</t>
-  </si>
-  <si>
-    <t>php</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\spidey.png</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\two.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\one.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\Untitled.png</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\ken.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\OneDrive - Edo State Government\Documents\usersPassport\Untitled2.png</t>
+    <t>NAMES</t>
+  </si>
+  <si>
+    <t>candidate full names</t>
+  </si>
+  <si>
+    <t>candidate email address and must be unique</t>
+  </si>
+  <si>
+    <t>candidate username and must also be unique</t>
+  </si>
+  <si>
+    <t>candidate password and must also be unique</t>
+  </si>
+  <si>
+    <t>sex e.g male or female</t>
+  </si>
+  <si>
+    <t>candidate job position i.e what he or she applied for</t>
+  </si>
+  <si>
+    <t>this place will be filled by a technical support team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave here blank </t>
   </si>
 </sst>
 </file>
@@ -289,19 +214,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -601,7 +524,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -644,15 +567,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -686,7 +613,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -697,7 +623,38 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -997,215 +954,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C66"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{A166715C-B1E4-48E0-824D-C4A052EDD6D4}"/>
-  </hyperlinks>
+  <autoFilter ref="F1:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="B1 B67:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D67:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>